--- a/dotnet/HuanTian.Store/wwwroot/Template/ExcelTemplate.xlsx
+++ b/dotnet/HuanTian.Store/wwwroot/Template/ExcelTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weihansrm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\huantian\dotnet\HuanTian.Store\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E431310B-AF88-4796-B561-83F08D77AFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A8087F-F9F6-45AA-99DB-D17809890FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,11 +39,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列名3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模板excel,示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{name}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Id}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Title}}中国人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,10 +383,15 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -390,13 +403,21 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1"/>
     </row>
